--- a/docs/VMI-Matrix.xlsx
+++ b/docs/VMI-Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eugen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\HAW\4. Semester\Software Engineering 2\Git\SE2-2.3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
   <si>
     <t>Werkstück-Sortieranlage</t>
   </si>
@@ -38,15 +38,9 @@
     <t>RDD bearbeiten</t>
   </si>
   <si>
-    <t>Git-Repository-Verwaltung</t>
-  </si>
-  <si>
     <t>Codequalität sicherstellen</t>
   </si>
   <si>
-    <t>Regressionstests</t>
-  </si>
-  <si>
     <t>Protokollführung</t>
   </si>
   <si>
@@ -138,13 +132,87 @@
   </si>
   <si>
     <t>Debugging und Fehlerbehandlung</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Legende: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Verantwortung  |  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Mitarbeit  |  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Information</t>
+    </r>
+  </si>
+  <si>
+    <t>Regressionstests erstellen</t>
+  </si>
+  <si>
+    <t>Git-Repository Verwaltung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +250,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -209,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -245,11 +328,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,11 +380,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,343 +675,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
     <col min="3" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="107.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>25</v>
+      <c r="A12" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>30</v>
+      <c r="A13" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
   </sheetData>
   <sortState ref="B2:F16">
     <sortCondition ref="B2"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/docs/VMI-Matrix.xlsx
+++ b/docs/VMI-Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\HAW\4. Semester\Software Engineering 2\Git\SE2-2.3\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abl424\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
   <si>
     <t>Werkstück-Sortieranlage</t>
   </si>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t>Git-Repository Verwaltung</t>
+  </si>
+  <si>
+    <t>HAL der Sensorik</t>
+  </si>
+  <si>
+    <t>Automat Anlagensteuerung</t>
+  </si>
+  <si>
+    <t>Regressionstests implementieren</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
   </si>
 </sst>
 </file>
@@ -363,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,6 +412,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,16 +741,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -737,13 +764,13 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -774,16 +801,16 @@
         <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -794,13 +821,13 @@
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>25</v>
@@ -917,10 +944,10 @@
         <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>24</v>
@@ -940,7 +967,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>24</v>
@@ -957,13 +984,13 @@
         <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -974,13 +1001,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>26</v>
@@ -1006,15 +1033,75 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
     </row>
   </sheetData>
   <sortState ref="B2:F16">
@@ -1022,7 +1109,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/docs/VMI-Matrix.xlsx
+++ b/docs/VMI-Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abl424\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eugen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="77">
   <si>
     <t>Werkstück-Sortieranlage</t>
   </si>
@@ -38,18 +38,9 @@
     <t>RDD bearbeiten</t>
   </si>
   <si>
-    <t>Codequalität sicherstellen</t>
-  </si>
-  <si>
     <t>Protokollführung</t>
   </si>
   <si>
-    <t>Meetings abhalten</t>
-  </si>
-  <si>
-    <t>Moderation / Agenda</t>
-  </si>
-  <si>
     <t>UML-Diagramme erstellen</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Projektplanung / PSP</t>
-  </si>
-  <si>
     <t>12.</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
   </si>
   <si>
     <t>Interface für HAL erstellen</t>
-  </si>
-  <si>
-    <t>Implementierung der kompletten Schnittstellen- und Hardwareansteuerung</t>
   </si>
   <si>
     <t>Testing</t>
@@ -202,18 +187,9 @@
     </r>
   </si>
   <si>
-    <t>Regressionstests erstellen</t>
-  </si>
-  <si>
     <t>Git-Repository Verwaltung</t>
   </si>
   <si>
-    <t>HAL der Sensorik</t>
-  </si>
-  <si>
-    <t>Automat Anlagensteuerung</t>
-  </si>
-  <si>
     <t>Regressionstests implementieren</t>
   </si>
   <si>
@@ -224,6 +200,126 @@
   </si>
   <si>
     <t>18.</t>
+  </si>
+  <si>
+    <t>Meeting abhalten</t>
+  </si>
+  <si>
+    <t>Moderation &amp; Agenda planen</t>
+  </si>
+  <si>
+    <t>Code-Qualität sicherstellen</t>
+  </si>
+  <si>
+    <t>Kick-Off Meeting abhalten</t>
+  </si>
+  <si>
+    <t>Regressionstests planen</t>
+  </si>
+  <si>
+    <t>Projektstrukturplan erstellen</t>
+  </si>
+  <si>
+    <t>HAL der Aktorik implementieren</t>
+  </si>
+  <si>
+    <t>HAL der Sensorik implementieren (via ISRs und Pulse-Messages)</t>
+  </si>
+  <si>
+    <t>Serielle Schnittstelle implementieren</t>
+  </si>
+  <si>
+    <t>Testprogramm für Aktorik und serielle Schnittstelle erstellen</t>
+  </si>
+  <si>
+    <t>Projektstrukturplan fertigstellen</t>
+  </si>
+  <si>
+    <t>Anlagensteuerung mit Zustandsautomaten modellieren</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>Callback-Mechanismus für Sensorik implementieren (Reactor Pattern)</t>
+  </si>
+  <si>
+    <t>Testprogramm für Implementierung des Callback-Mechanismus erstellen</t>
+  </si>
+  <si>
+    <t>Zustandsautomaten der Anlagensteuerung implementieren</t>
+  </si>
+  <si>
+    <t>Testprogramm für Implementierung der Zustandsautomaten erstellen</t>
+  </si>
+  <si>
+    <t>Ablauf über beide Förderbänder implementieren (ohne Ausnahmebehandlung)</t>
+  </si>
+  <si>
+    <t>Dokumentation des fehlerfreien Testablaufs mit allen Bauteilen erstellen</t>
+  </si>
+  <si>
+    <t>Timer für Ausnahmebehandlung implementieren</t>
+  </si>
+  <si>
+    <t>Timingverhalten zwischen HW- und BS-Timer im RDD diskutiert</t>
+  </si>
+  <si>
+    <t>Ablauf über beide Förderbänder implementieren (inkl. Ausnahmebehandlung)</t>
+  </si>
+  <si>
+    <t>Bedienhandbuch für die Werkstück-Sortieranlage erstellen</t>
+  </si>
+  <si>
+    <t>Abnahmetest erstellen</t>
+  </si>
+  <si>
+    <t>Dokumentation vervollständigen (inkl. „Lessons learned“)</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>34.</t>
   </si>
 </sst>
 </file>
@@ -240,30 +336,8 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,6 +353,27 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,7 +446,9 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -360,7 +457,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -371,7 +470,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -381,46 +482,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,417 +812,708 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" customWidth="1"/>
     <col min="3" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="107.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="C27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="B2:F16">
+  <sortState ref="B3:F19">
     <sortCondition ref="B2"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>